--- a/deploy/部署.xlsx
+++ b/deploy/部署.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\GitHub\maxmicro\deploy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD92FD20-E46C-471F-B56A-079282027642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7034052-874F-4F39-9485-BF23E5207F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5325" yWindow="2355" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -422,7 +422,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/deploy/部署.xlsx
+++ b/deploy/部署.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\GitHub\maxmicro\deploy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7034052-874F-4F39-9485-BF23E5207F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B84C7F2-E8B4-463E-85B7-96FCA80A9BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5325" yWindow="2355" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -422,7 +422,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/deploy/部署.xlsx
+++ b/deploy/部署.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\GitHub\maxmicro\deploy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B84C7F2-E8B4-463E-85B7-96FCA80A9BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E003FEFB-1994-4ECA-99C6-07797AAD0EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5325" yWindow="2355" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -422,7 +422,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/deploy/部署.xlsx
+++ b/deploy/部署.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\GitHub\maxmicro\deploy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E003FEFB-1994-4ECA-99C6-07797AAD0EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1E3F79-A7DB-41A9-8997-B5284D4456C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5325" yWindow="2355" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/deploy/部署.xlsx
+++ b/deploy/部署.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\GitHub\maxmicro\deploy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1E3F79-A7DB-41A9-8997-B5284D4456C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C232073-E32B-4839-B181-0690CA574627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5325" yWindow="2355" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>docker pull consul</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,6 +88,14 @@
     -v /var/run/docker.sock:/var/run/docker.sock \
     --user root \
     micro-deploy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protobuf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protoc --proto_path=src/protos --micro_out=src/Users --go_out=src/Users Users.proto</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -419,16 +427,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.625" style="1"/>
-    <col min="2" max="2" width="66.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="83" style="1" customWidth="1"/>
     <col min="3" max="16384" width="15.625" style="1"/>
   </cols>
   <sheetData>
@@ -479,6 +487,14 @@
         <v>10</v>
       </c>
     </row>
+    <row r="9" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
